--- a/logfc_Analysis/logfc_col_HC/meta_colgc_r.xlsx
+++ b/logfc_Analysis/logfc_col_HC/meta_colgc_r.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\logfc_col_HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BCC3F7A-ABD4-4600-A8C7-26E673A4AAE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC65A8E-84A9-439C-BABE-A40477B3C4DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1764" yWindow="2916" windowWidth="17280" windowHeight="8964" xr2:uid="{BF7EFC6F-8E89-4C13-8C75-E1AFD9D41041}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="12036" windowHeight="8964" xr2:uid="{BF7EFC6F-8E89-4C13-8C75-E1AFD9D41041}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unknown(.1), Mitochondrion(.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NM_001345016</t>
   </si>
   <si>
@@ -270,6 +266,10 @@
   </si>
   <si>
     <t>GO:0003676, GO:0005488, GO:0006139, GO:0006259, GO:0006281, GO:0008152, GO:0044238</t>
+  </si>
+  <si>
+    <t>Plasma membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -704,10 +704,10 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
       </c>
       <c r="F3">
         <v>835372</v>
@@ -721,51 +721,51 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
       </c>
       <c r="F4">
         <v>821254</v>
       </c>
       <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
       </c>
       <c r="F5">
         <v>821455</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -773,71 +773,71 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
       </c>
       <c r="F6">
         <v>824375</v>
       </c>
       <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
       </c>
       <c r="F7">
         <v>827854</v>
       </c>
       <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
         <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
       </c>
       <c r="F8">
         <v>842991</v>
@@ -846,30 +846,30 @@
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
       </c>
       <c r="F9">
         <v>816391</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -877,25 +877,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
       </c>
       <c r="F10">
         <v>829038</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -903,80 +903,80 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
       </c>
       <c r="F11">
         <v>834082</v>
       </c>
       <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
         <v>62</v>
-      </c>
-      <c r="H11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
       </c>
       <c r="F12">
         <v>835822</v>
       </c>
       <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
         <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
         <v>72</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
       </c>
       <c r="F13">
         <v>836267</v>
       </c>
       <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
         <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
